--- a/biology/Médecine/Albert_Beckers/Albert_Beckers.xlsx
+++ b/biology/Médecine/Albert_Beckers/Albert_Beckers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Beckers (né à Verviers le 26 mars 1956) est docteur en médecine et docteur en sciences cliniques belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Beckers est né le 26 mars 1956. Après des études de médecine à l’Université de Louvain (1980), Albert Beckers se spécialise en médecine interne (1985) et médecine nucléaire (1987) à l’Université de Liège.
 Il y réalise sa thèse de Doctorat en sciences clinique (1986) et sa thèse d’Agrégation de l’Enseignement Supérieur (1996). Il enseigne ensuite l’Endocrinologie à l’Université de Liège ou il  deviendra  Professeur Ordinaire et dirige le  service d’Endocrinologie au CHU de Liège.jusqu’en 2021
@@ -544,10 +558,12 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec ces deux casquettes, Albert Beckers décide de s’orienter vers l’endocrinologie. Ses travaux de recherche lui ont notamment valu le Prix de la Société française d’endocrinologie en 1996, le Prix du meilleur article belge de Médecine interne en 2008 et les Prix de « Best Achievement » des Sociétés américaine et belge d’endocrinologie, également en 2008[2]. Il recevra également de la société européenne d'endocrinologie en 2016 le prix Geoffrey Harris de Neuro-endocrinologie [3],[4].
-Auteur de 10 CD-roms, participation à 9 ouvrages et 31 chapitres de collaboration scientifique, 262 articles scientifiques dans des revues médicales (New England Journal of Medicine – Journal of Clinical Endocrinogy and Metabolism – Journal of Internal Medicine – European Journal of Endocrinology – International Journal of Cancer and others) et 389 abstracts, sa contribution scientifiques se focalise principalement autour des adénomes hypophysaires, des Familial Isolated Pituitary Adenomas (FIPA), des Multiple endocrine neoplasia type 1 (MEN1) et du traitement par immunisation du Cancer Parathyroïdien[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec ces deux casquettes, Albert Beckers décide de s’orienter vers l’endocrinologie. Ses travaux de recherche lui ont notamment valu le Prix de la Société française d’endocrinologie en 1996, le Prix du meilleur article belge de Médecine interne en 2008 et les Prix de « Best Achievement » des Sociétés américaine et belge d’endocrinologie, également en 2008. Il recevra également de la société européenne d'endocrinologie en 2016 le prix Geoffrey Harris de Neuro-endocrinologie ,.
+Auteur de 10 CD-roms, participation à 9 ouvrages et 31 chapitres de collaboration scientifique, 262 articles scientifiques dans des revues médicales (New England Journal of Medicine – Journal of Clinical Endocrinogy and Metabolism – Journal of Internal Medicine – European Journal of Endocrinology – International Journal of Cancer and others) et 389 abstracts, sa contribution scientifiques se focalise principalement autour des adénomes hypophysaires, des Familial Isolated Pituitary Adenomas (FIPA), des Multiple endocrine neoplasia type 1 (MEN1) et du traitement par immunisation du Cancer Parathyroïdien.
 </t>
         </is>
       </c>
